--- a/BangTuDanhGiaDiem_Test02.xlsx
+++ b/BangTuDanhGiaDiem_Test02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC_TAP\NAM-CUOI\CD-Web1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\LeVanHuy_16211TT1794_Project_CDWeb1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.15" customHeight="1">
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="37.15" customHeight="1">
@@ -745,7 +745,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32.450000000000003" customHeight="1">
@@ -797,7 +797,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <f>SUM(E3:E17)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
